--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/101.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/101.xlsx
@@ -479,13 +479,13 @@
         <v>4.455445430638893</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.460104794831219</v>
+        <v>-8.567317662802113</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.188917918250115</v>
+        <v>-2.136404691551952</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.917173721579922</v>
+        <v>-5.80611171657356</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>4.236842087863284</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.153185122666512</v>
+        <v>-9.278033322565213</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.103935780504471</v>
+        <v>-2.058322197403898</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.838750827557983</v>
+        <v>-5.734418266212268</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>4.04236184155469</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.727387340698934</v>
+        <v>-9.861413244889684</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.198776422289935</v>
+        <v>-2.148436517863498</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.690048451881658</v>
+        <v>-5.587247689968425</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>3.913515426336505</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.38082417552948</v>
+        <v>-10.52167116950077</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.098489382522313</v>
+        <v>-2.040333373299366</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.572898526053894</v>
+        <v>-5.486031096699041</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>3.857746720319906</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.05814137074334</v>
+        <v>-11.21312805178369</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.224790828036445</v>
+        <v>-2.177737091623281</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.114851218833265</v>
+        <v>-5.021372176543341</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>3.89544856432384</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.56275799917199</v>
+        <v>-11.70569976159795</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.004211709759044</v>
+        <v>-1.950507083502284</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.022223176228054</v>
+        <v>-4.967444981138271</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>4.035424272937469</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.17804386352175</v>
+        <v>-12.31408598235012</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.858075425439697</v>
+        <v>-1.800416923724736</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.602575593242208</v>
+        <v>-4.559475732287246</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>4.273865532994336</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.78805352982629</v>
+        <v>-12.92391235641488</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.777505393751715</v>
+        <v>-1.720043276579379</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.019797916848455</v>
+        <v>-3.968528458920256</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.606644147735105</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.4083144692559</v>
+        <v>-13.53417077647341</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.696320023830172</v>
+        <v>-1.660708960100677</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.655229651917751</v>
+        <v>-3.600333626102394</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.024114118288818</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.26684222810209</v>
+        <v>-14.40095977841273</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.523986041524532</v>
+        <v>-1.482876210601512</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.149382347021981</v>
+        <v>-3.113051206636191</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.497914089376171</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.91800100223818</v>
+        <v>-15.05391219803814</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.387380953673962</v>
+        <v>-1.351429490070582</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.729394364162251</v>
+        <v>-2.701848158983259</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>6.0047521388594</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.65535949828419</v>
+        <v>-15.77442090032685</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.22466981395699</v>
+        <v>-1.183193398554402</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.125341695650693</v>
+        <v>-2.092768046180479</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>6.520625972087824</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.30672774926574</v>
+        <v>-16.43590950140506</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.007285217572971</v>
+        <v>-0.9682701551046269</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.422023186993169</v>
+        <v>-1.382091663325904</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>7.010684197479679</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.94466329753169</v>
+        <v>-17.06021596241276</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.784925546109095</v>
+        <v>-0.7403593472358595</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.250160527589831</v>
+        <v>-1.206523882218358</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>7.450812678886653</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.79977396533619</v>
+        <v>-17.89876486712248</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.596762969667808</v>
+        <v>-0.5387771603818032</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7265338754349968</v>
+        <v>-0.6962121020535592</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>7.82398079300595</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.66825187434208</v>
+        <v>-18.78580766155794</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2894211604582885</v>
+        <v>-0.2448025923736861</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5120034010704735</v>
+        <v>-0.4835276423897192</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>8.109309901066732</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.41791713505932</v>
+        <v>-19.52786629432413</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1632375456697327</v>
+        <v>-0.1423422303343379</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1023976143642317</v>
+        <v>-0.07049167233894522</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.29500058465965</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.09190888535138</v>
+        <v>-20.20789359622623</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07192639797335094</v>
+        <v>0.09610788132201899</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04096310175266879</v>
+        <v>0.06613960011730802</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.381484541662136</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.5828702419161</v>
+        <v>-20.66323079675862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1669241473929153</v>
+        <v>0.1808805422221953</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2916937934745647</v>
+        <v>0.3193840139848154</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>8.369423178991923</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.2299834944741</v>
+        <v>-21.31940392288309</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4119073181672935</v>
+        <v>0.4209802840366096</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4340202176669688</v>
+        <v>0.4632029607011762</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>8.263972365110673</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.65414792194034</v>
+        <v>-21.74597733407221</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5240036150981521</v>
+        <v>0.5226551079054543</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6148118276083641</v>
+        <v>0.6687521153162755</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>8.082707684745539</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.0282081064313</v>
+        <v>-22.11491842815205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6669715621298007</v>
+        <v>0.6695376534867791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6496766300758806</v>
+        <v>0.7188694505944029</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>7.843315859193098</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.32531173481858</v>
+        <v>-22.39752887729355</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8531310162363037</v>
+        <v>0.8603841520106199</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7977767598214859</v>
+        <v>0.896466538642417</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>7.560868100181668</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.47017806576228</v>
+        <v>-22.51926110911592</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8638405199608357</v>
+        <v>0.8616671976891092</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9047539663412296</v>
+        <v>1.007999866551081</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>7.259355495167965</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.69290432170573</v>
+        <v>-22.7350353522504</v>
       </c>
       <c r="F26" t="n">
-        <v>1.027324105545469</v>
+        <v>1.022506138099714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7014566878149072</v>
+        <v>0.8346839615323117</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>6.962100316158698</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.56535910742163</v>
+        <v>-22.60493713891217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9885054276197512</v>
+        <v>0.9785683697628812</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5889283448902717</v>
+        <v>0.7260833094601939</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>6.682977182634376</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.67121037589699</v>
+        <v>-22.71216309918591</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9860833515940319</v>
+        <v>0.9802179999209386</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1515275992510454</v>
+        <v>0.2859855494355721</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>6.441548488599028</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.41251956404732</v>
+        <v>-22.46645985175523</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9529991023129901</v>
+        <v>0.9525801486220549</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08133209909189441</v>
+        <v>0.0619107862994305</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>6.256958962909382</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.25913014395366</v>
+        <v>-22.32366210466053</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8887551722686403</v>
+        <v>0.8903131563068057</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5480072338852201</v>
+        <v>-0.4124102533534632</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>6.130856330311748</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.79608157704749</v>
+        <v>-21.84064777592073</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8812009135289643</v>
+        <v>0.8763305768718423</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8397430181074022</v>
+        <v>-0.7166491867894936</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.066156358999255</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.32720693537676</v>
+        <v>-21.36983547342941</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8279021486602975</v>
+        <v>0.8370274837409807</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.260634369863212</v>
+        <v>-1.146822981260087</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.067904355506673</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.11898695098195</v>
+        <v>-21.17741789856457</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7318439227105534</v>
+        <v>0.7342921833419562</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.671300633099633</v>
+        <v>-1.56174424292007</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>6.121734979456427</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.62713531782398</v>
+        <v>-20.67676823789697</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6852222322911669</v>
+        <v>0.6989298733664541</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.054577798791164</v>
+        <v>-1.964725324388398</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>6.216969788357723</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.24021849194245</v>
+        <v>-20.29379219517079</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6369378194108811</v>
+        <v>0.6620488562613117</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.253227309808674</v>
+        <v>-2.161934682093318</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>6.349112043654221</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.68612605107492</v>
+        <v>-19.74811810503049</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6535126748085064</v>
+        <v>0.6779429119111672</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.575782374920279</v>
+        <v>-2.49121919086557</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>6.500035588769038</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.31324417383972</v>
+        <v>-19.36537772375547</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5741209503762794</v>
+        <v>0.5966397112640484</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.807555412127355</v>
+        <v>-2.718881244980345</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>6.655185094205727</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.60982092675946</v>
+        <v>-18.64239457622968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7473844861836823</v>
+        <v>0.7751401682081415</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.87577940223559</v>
+        <v>-2.800393922472931</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>6.809661937107789</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.15282100376617</v>
+        <v>-18.20834546011793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8408635284736063</v>
+        <v>0.8788442990174538</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.79985713805642</v>
+        <v>-2.714390585105633</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>6.951424915052067</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.55713431677048</v>
+        <v>-17.60040437766238</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7292123698393664</v>
+        <v>0.7679263093423504</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.855512517436598</v>
+        <v>-2.769064041772681</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>7.070951252469167</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.00446893691269</v>
+        <v>-17.05867107067744</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8876946957384605</v>
+        <v>0.933648678712919</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.016443103967095</v>
+        <v>-2.951583835689184</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>7.170052545524923</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.35986940650031</v>
+        <v>-16.41051043389211</v>
       </c>
       <c r="F42" t="n">
-        <v>0.866642272768965</v>
+        <v>0.9134603477309774</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.161950957750038</v>
+        <v>-3.101673995466732</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>7.246327709385511</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.79729315339134</v>
+        <v>-15.84240922898393</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8891217567482087</v>
+        <v>0.9418313679889978</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.175828798762268</v>
+        <v>-3.127505108973457</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>7.294998864052753</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.2074587257659</v>
+        <v>-15.23510966936762</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9704904189095361</v>
+        <v>1.032953795767411</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.333355386553916</v>
+        <v>-3.301672013676939</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>7.321218819870159</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.6943844697015</v>
+        <v>-14.75269758655854</v>
       </c>
       <c r="F45" t="n">
-        <v>0.936227862372739</v>
+        <v>1.002003591849571</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.429911120011646</v>
+        <v>-3.404237114139021</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>7.328013630272969</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.22463264374036</v>
+        <v>-14.28764589731759</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7461799943222435</v>
+        <v>0.811248739445622</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.459578278250997</v>
+        <v>-3.438853162852545</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>7.312493710374386</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.45083826888583</v>
+        <v>-13.52160216574536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7977636675186441</v>
+        <v>0.8649402733995406</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.334939555197765</v>
+        <v>-3.307943226738125</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>7.281087455662327</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.87988294195815</v>
+        <v>-12.95073848493758</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7218675879451582</v>
+        <v>0.7882979325640762</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.354198332677944</v>
+        <v>-3.315366562449384</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>7.241502487838899</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.4644379881845</v>
+        <v>-12.52911396422263</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6839522789155195</v>
+        <v>0.7546376219579984</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.486404406773694</v>
+        <v>-3.449379374337292</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>7.192139711853636</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.91535989930535</v>
+        <v>-11.98236630524931</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6331541438896223</v>
+        <v>0.695682982261706</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.6328418140584</v>
+        <v>-3.609380407366026</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>7.138343508026815</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.44098649044109</v>
+        <v>-11.49789873089408</v>
       </c>
       <c r="F51" t="n">
-        <v>0.63852198805473</v>
+        <v>0.7073482240936839</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.807715703115335</v>
+        <v>-3.788024879641379</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>7.088792193832743</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.97886747703669</v>
+        <v>-11.03814942430402</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5816228399045885</v>
+        <v>0.6440993090653053</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.863410359404038</v>
+        <v>-3.833507539713535</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>7.03874246970005</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.37735471527643</v>
+        <v>-10.43416221730667</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5584756484804169</v>
+        <v>0.6220518710798386</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.019588440002988</v>
+        <v>-3.989659435706802</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.98845743914529</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.943580537524358</v>
+        <v>-9.996944763907234</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5466532990143381</v>
+        <v>0.6219078557485797</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.085914046199172</v>
+        <v>-4.046440753131368</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.944422448560498</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.4534570883415</v>
+        <v>-9.501361824439376</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4583064394383707</v>
+        <v>0.5348702264567847</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.201610726411506</v>
+        <v>-4.154805743752335</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>6.899479250156474</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.123714348969788</v>
+        <v>-9.193483230813346</v>
       </c>
       <c r="F56" t="n">
-        <v>0.424881790283444</v>
+        <v>0.511435004370095</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.461139445643041</v>
+        <v>-4.407906142288583</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>6.849606738740758</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.606751678961393</v>
+        <v>-8.677227545158404</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3952931858611431</v>
+        <v>0.4832472763518588</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.443425559898186</v>
+        <v>-4.381250213702828</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>6.79921824782186</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.499578087899023</v>
+        <v>-8.589417469998947</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3540131550011808</v>
+        <v>0.4503986885219681</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.511152042498435</v>
+        <v>-4.442037775796963</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>6.743388904794577</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.946677046590089</v>
+        <v>-8.012858637455015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3538036781557132</v>
+        <v>0.4341773253010695</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.748306016173461</v>
+        <v>-4.684140639946161</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>6.679175212540795</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.855462972691783</v>
+        <v>-7.922613393966996</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4673663130048451</v>
+        <v>0.5625997238755606</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.807823624891948</v>
+        <v>-4.744705632891987</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>6.61486088476964</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.523455264928452</v>
+        <v>-7.581035212826364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4211635762763938</v>
+        <v>0.5146818954748431</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.918872537595468</v>
+        <v>-4.852285085342449</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>6.553050691293145</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.23937847786868</v>
+        <v>-7.300912301224792</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3935126326746684</v>
+        <v>0.4859181061315709</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.109758313027834</v>
+        <v>-5.042110384244635</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>6.494993482439816</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.059176021555162</v>
+        <v>-7.121992890589764</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3591977069265043</v>
+        <v>0.4518912110459249</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.059222024058771</v>
+        <v>-4.991770479818198</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>6.45343602095548</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.843166116969524</v>
+        <v>-6.90828723130427</v>
       </c>
       <c r="F64" t="n">
-        <v>0.15656813584511</v>
+        <v>0.247232333024063</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.051798688347513</v>
+        <v>-4.998539200387371</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>6.437092817005163</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.785861107431288</v>
+        <v>-6.857227250221538</v>
       </c>
       <c r="F65" t="n">
-        <v>0.06983162951867476</v>
+        <v>0.1612551802624479</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.108789482617547</v>
+        <v>-5.049795566012729</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>6.4476471877675</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.514222008071156</v>
+        <v>-6.567965911236442</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1116091678866226</v>
+        <v>0.2013176269581297</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.077237032768987</v>
+        <v>-5.019382146511399</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>6.496406961248883</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.398211112590622</v>
+        <v>-6.456210014179468</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.01931386053063803</v>
+        <v>0.07917953374766717</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.032081680267873</v>
+        <v>-4.9901077573573</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>6.591132397405236</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.182227392610667</v>
+        <v>-6.245895261329981</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.05365497088448551</v>
+        <v>0.04527046938759666</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.017994362410176</v>
+        <v>-4.984543528649566</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>6.726294559513809</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.204012984539299</v>
+        <v>-6.263229470292426</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1334525567048059</v>
+        <v>-0.04024845277455801</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.908280864596511</v>
+        <v>-4.864539480802305</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>6.904954732689224</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.340971564566595</v>
+        <v>-6.39569739044501</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1694563895195526</v>
+        <v>-0.07037384161336969</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.841706504646335</v>
+        <v>-4.80397448785648</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>7.130003321528486</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.361015880217278</v>
+        <v>-6.417626997704901</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.168382820686531</v>
+        <v>-0.07415751713462854</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.783838526085906</v>
+        <v>-4.753516752704468</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>7.388074812790633</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.470585362699683</v>
+        <v>-6.536269446056623</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2756611501716345</v>
+        <v>-0.1905742740032567</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.659841325871918</v>
+        <v>-4.636969072807422</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>7.675635808546416</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.566617404043744</v>
+        <v>-6.624118798124605</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2747315966698719</v>
+        <v>-0.1840019379767102</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.413850047778727</v>
+        <v>-4.388725918625454</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>7.992507999841061</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.856755927319235</v>
+        <v>-6.911966168402794</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2829404705516341</v>
+        <v>-0.1983903787997672</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.120739571758164</v>
+        <v>-4.097474549608417</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>8.32114558581298</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.091723486419693</v>
+        <v>-7.144773497534367</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4180399435754054</v>
+        <v>-0.3362916046316679</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.858134161358822</v>
+        <v>-3.829462018135442</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>8.654034666101147</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.366007230953854</v>
+        <v>-7.414946258976227</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5176069066867321</v>
+        <v>-0.4384770283113398</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.500648832265492</v>
+        <v>-3.471217335477291</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>8.989366887697772</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.870780967016603</v>
+        <v>-7.91316075131527</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3970529821201185</v>
+        <v>-0.3199655029880354</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.375604247824166</v>
+        <v>-3.345649058922297</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>9.311638201242854</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.270083111386406</v>
+        <v>-8.313392449186836</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4863555798035321</v>
+        <v>-0.4139420527859452</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.389521365744921</v>
+        <v>-3.365261328579202</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>9.610736792334862</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.738342414823581</v>
+        <v>-8.774909216660522</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5290103024618756</v>
+        <v>-0.4583642363279217</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.117306205059752</v>
+        <v>-3.08178678745015</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>9.885242319332583</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.312400617524744</v>
+        <v>-9.345759805165462</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5946812935159735</v>
+        <v>-0.515512138232056</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.745877573439984</v>
+        <v>-2.707098172422791</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>10.12344384352064</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.883617790509252</v>
+        <v>-9.903649013857093</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6134687480938504</v>
+        <v>-0.5600128755910829</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.58641332482776</v>
+        <v>-2.561315380280171</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>10.31387058407744</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.78349104172961</v>
+        <v>-10.81400919965367</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6060585046854335</v>
+        <v>-0.5348363772264437</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.194442870049324</v>
+        <v>-2.160861113260296</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>10.45648943901496</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.59005545059699</v>
+        <v>-11.60100061577267</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6741777563709342</v>
+        <v>-0.6144113938984548</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.963926693915053</v>
+        <v>-1.925252031320594</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>10.54567095236482</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.53855351457151</v>
+        <v>-12.54267758996666</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5760902234807226</v>
+        <v>-0.5117153704079554</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.736303916708803</v>
+        <v>-1.709909834179884</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>10.57185147495182</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.70582395903129</v>
+        <v>-13.69229961019578</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.670983234477553</v>
+        <v>-0.605508627966081</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.582600281346939</v>
+        <v>-1.559570920648343</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>10.53779611884935</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.82725825124217</v>
+        <v>-14.82423392928573</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7296891204198528</v>
+        <v>-0.6725019416071933</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.31940571731972</v>
+        <v>-1.277012840718211</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>10.44584969300968</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.95606350995295</v>
+        <v>-15.94510525247443</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7543942958821899</v>
+        <v>-0.6952563639461132</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.241139930931882</v>
+        <v>-1.197477100954725</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>10.29124888212434</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.29556319829563</v>
+        <v>-17.27305752971071</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.937961474026031</v>
+        <v>-0.8844532323118967</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.080733036515054</v>
+        <v>-1.037633175560092</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>10.07911266370417</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78652773821424</v>
+        <v>-18.74048210911989</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9532140068366419</v>
+        <v>-0.9061209935149532</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.121698852106815</v>
+        <v>-1.081047251783255</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>9.818574275715521</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34685529858831</v>
+        <v>-20.29444681031288</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.035184914928689</v>
+        <v>-1.009746570507215</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.047216741240235</v>
+        <v>-1.00492860306146</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>9.507391779179612</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99418121134565</v>
+        <v>-21.94545166016875</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.149218872680123</v>
+        <v>-1.127132157786131</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.057166891399947</v>
+        <v>-0.9961829447631869</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>9.147699766282312</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64707135281072</v>
+        <v>-23.59369403412501</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.287159375420549</v>
+        <v>-1.273700488099254</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.247214759450443</v>
+        <v>-1.191847410732783</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>8.750582104028027</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70421252911978</v>
+        <v>-25.65142436406193</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.300448062804901</v>
+        <v>-1.276593887027276</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.483124964355504</v>
+        <v>-1.416746988947953</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>8.313167666239153</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69911289771926</v>
+        <v>-27.6501476850912</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.302254800597059</v>
+        <v>-1.273006596048643</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.460462188136477</v>
+        <v>-1.372141513166193</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>7.835722986282301</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.01596608549963</v>
+        <v>-29.98514680461021</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.615933284381974</v>
+        <v>-1.59527363049773</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.706937881434812</v>
+        <v>-1.622675820345463</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.327257459112909</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.14671218838486</v>
+        <v>-32.1134315545612</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.621890282174959</v>
+        <v>-1.576878945005105</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.984023378777102</v>
+        <v>-1.876862880017574</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.794024191642749</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.52500755340145</v>
+        <v>-34.49081045837887</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.763758475767903</v>
+        <v>-1.741488468634127</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.143134135212599</v>
+        <v>-2.029938084843036</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>6.22819861868722</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.60068743053439</v>
+        <v>-36.53763490004864</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.981692948871275</v>
+        <v>-1.950441621988075</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.374946449328201</v>
+        <v>-2.246380035422451</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>5.661406410180756</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.90211788556721</v>
+        <v>-38.86302426928181</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.040123896453899</v>
+        <v>-2.028576485347496</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.638350490200887</v>
+        <v>-2.52239196393172</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>5.079434990430714</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.23906775820962</v>
+        <v>-41.21097167631128</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.444545131234817</v>
+        <v>-2.440918563347659</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.815751193706276</v>
+        <v>-2.70056511330477</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>4.529434809408677</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.58636055009701</v>
+        <v>-43.55626134586388</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.619471389503119</v>
+        <v>-2.617101682688766</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.004083970084505</v>
+        <v>-2.900314377760985</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.969370684410225</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.92760469807151</v>
+        <v>-45.90018941592094</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.94480202281717</v>
+        <v>-2.960853186101126</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.359500715328843</v>
+        <v>-3.266427534427012</v>
       </c>
     </row>
   </sheetData>
